--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC160-TORNILLERA 4.5-6.5 ACERO #3.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC160-TORNILLERA 4.5-6.5 ACERO #3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{6E30AD5A-7FFF-4BED-8229-D00BE272D017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="12240" yWindow="135" windowWidth="11070" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAIRO" sheetId="1" r:id="rId1"/>
@@ -17,33 +18,22 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">JAIRO!$A$6:$G$92</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -771,7 +761,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -1353,7 +1343,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1713,29 +1703,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.453125" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="68" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.453125" style="1"/>
+    <col min="8" max="16384" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="6"/>
@@ -1743,7 +1733,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="68" t="s">
@@ -1755,7 +1745,7 @@
       <c r="E2" s="71"/>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="69"/>
@@ -1765,7 +1755,7 @@
       <c r="E3" s="42"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
       <c r="B4" s="40"/>
       <c r="C4" s="72" t="s">
@@ -1777,7 +1767,7 @@
       <c r="E4" s="75"/>
       <c r="F4" s="38"/>
     </row>
-    <row r="5" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="43"/>
       <c r="B5" s="44"/>
       <c r="C5" s="73"/>
@@ -1787,21 +1777,21 @@
       <c r="E5" s="77"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="27">
         <f ca="1">NOW()</f>
-        <v>45380.825508912036</v>
+        <v>45397.762079166663</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>35</v>
@@ -1811,7 +1801,7 @@
       </c>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1819,7 +1809,7 @@
       <c r="E8" s="9"/>
       <c r="G8" s="35"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>36</v>
       </c>
@@ -1831,7 +1821,7 @@
       <c r="E9" s="47"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1839,7 +1829,7 @@
       <c r="E10" s="9"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
         <v>197</v>
       </c>
@@ -1853,7 +1843,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1861,7 +1851,7 @@
       <c r="E12" s="9"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>38</v>
       </c>
@@ -1875,7 +1865,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1883,7 +1873,7 @@
       <c r="E14" s="9"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>40</v>
       </c>
@@ -1899,7 +1889,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1907,7 +1897,7 @@
       <c r="E16" s="9"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>42</v>
       </c>
@@ -1917,7 +1907,7 @@
       <c r="E17" s="23"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1925,7 +1915,7 @@
       <c r="E18" s="9"/>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>43</v>
       </c>
@@ -1937,7 +1927,7 @@
       <c r="E19" s="21"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1945,7 +1935,7 @@
       <c r="E20" s="9"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>203</v>
       </c>
@@ -1955,7 +1945,7 @@
       <c r="E21" s="24"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1"/>
@@ -1964,7 +1954,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="65" t="s">
         <v>112</v>
       </c>
@@ -1975,7 +1965,7 @@
       <c r="F23" s="65"/>
       <c r="G23" s="65"/>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>1</v>
       </c>
@@ -1998,7 +1988,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
         <v>52</v>
       </c>
@@ -2018,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="56" t="s">
         <v>53</v>
       </c>
@@ -2038,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
         <v>54</v>
       </c>
@@ -2058,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="56" t="s">
         <v>55</v>
       </c>
@@ -2078,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="57" t="s">
         <v>56</v>
       </c>
@@ -2098,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="s">
         <v>57</v>
       </c>
@@ -2118,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
         <v>58</v>
       </c>
@@ -2138,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="56" t="s">
         <v>59</v>
       </c>
@@ -2158,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="50" t="s">
         <v>60</v>
       </c>
@@ -2178,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="56" t="s">
         <v>61</v>
       </c>
@@ -2198,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="50" t="s">
         <v>62</v>
       </c>
@@ -2218,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="s">
         <v>63</v>
       </c>
@@ -2238,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="50" t="s">
         <v>64</v>
       </c>
@@ -2258,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="59" t="s">
         <v>65</v>
       </c>
@@ -2278,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="50" t="s">
         <v>83</v>
       </c>
@@ -2298,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="61" t="s">
         <v>84</v>
       </c>
@@ -2318,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="50" t="s">
         <v>66</v>
       </c>
@@ -2338,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="61" t="s">
         <v>85</v>
       </c>
@@ -2358,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
         <v>67</v>
       </c>
@@ -2378,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="56" t="s">
         <v>68</v>
       </c>
@@ -2398,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="56" t="s">
         <v>69</v>
       </c>
@@ -2418,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="50" t="s">
         <v>86</v>
       </c>
@@ -2438,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="51"/>
       <c r="B47" s="52"/>
       <c r="C47" s="53"/>
@@ -2450,7 +2440,7 @@
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
     </row>
-    <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="50" t="s">
         <v>206</v>
       </c>
@@ -2467,7 +2457,7 @@
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
     </row>
-    <row r="49" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="50" t="s">
         <v>87</v>
       </c>
@@ -2487,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="56" t="s">
         <v>88</v>
       </c>
@@ -2507,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="50" t="s">
         <v>3</v>
       </c>
@@ -2527,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="56" t="s">
         <v>4</v>
       </c>
@@ -2547,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="50" t="s">
         <v>5</v>
       </c>
@@ -2567,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="56" t="s">
         <v>6</v>
       </c>
@@ -2587,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="50" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="56" t="s">
         <v>8</v>
       </c>
@@ -2627,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="50" t="s">
         <v>9</v>
       </c>
@@ -2647,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="56" t="s">
         <v>10</v>
       </c>
@@ -2667,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="50" t="s">
         <v>11</v>
       </c>
@@ -2687,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="56" t="s">
         <v>12</v>
       </c>
@@ -2707,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="50" t="s">
         <v>13</v>
       </c>
@@ -2727,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="56" t="s">
         <v>14</v>
       </c>
@@ -2747,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="50" t="s">
         <v>15</v>
       </c>
@@ -2767,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="56" t="s">
         <v>16</v>
       </c>
@@ -2788,7 +2778,7 @@
       </c>
       <c r="J64" s="50"/>
     </row>
-    <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="50" t="s">
         <v>17</v>
       </c>
@@ -2808,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="56" t="s">
         <v>18</v>
       </c>
@@ -2828,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="50" t="s">
         <v>80</v>
       </c>
@@ -2848,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="61" t="s">
         <v>19</v>
       </c>
@@ -2868,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="50" t="s">
         <v>20</v>
       </c>
@@ -2888,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="59" t="s">
         <v>21</v>
       </c>
@@ -2908,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="50" t="s">
         <v>22</v>
       </c>
@@ -2928,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="50" t="s">
         <v>22</v>
       </c>
@@ -2948,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="56" t="s">
         <v>23</v>
       </c>
@@ -2968,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="50" t="s">
         <v>24</v>
       </c>
@@ -2988,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="51" t="s">
         <v>91</v>
       </c>
@@ -3008,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="51"/>
       <c r="B76" s="52"/>
       <c r="C76" s="53"/>
@@ -3020,7 +3010,7 @@
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
     </row>
-    <row r="77" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="51">
         <v>108030</v>
       </c>
@@ -3040,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="52" t="s">
         <v>92</v>
       </c>
@@ -3057,7 +3047,7 @@
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
     </row>
-    <row r="79" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="52" t="s">
         <v>70</v>
       </c>
@@ -3077,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="51">
         <v>108045</v>
       </c>
@@ -3097,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="52" t="s">
         <v>94</v>
       </c>
@@ -3117,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="51">
         <v>108055</v>
       </c>
@@ -3137,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="51">
         <v>108060</v>
       </c>
@@ -3157,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="52" t="s">
         <v>96</v>
       </c>
@@ -3177,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="51">
         <v>109070</v>
       </c>
@@ -3197,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="52" t="s">
         <v>71</v>
       </c>
@@ -3217,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="51">
         <v>108080</v>
       </c>
@@ -3237,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="51">
         <v>108085</v>
       </c>
@@ -3257,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="51">
         <v>108090</v>
       </c>
@@ -3277,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="51">
         <v>108095</v>
       </c>
@@ -3297,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="52" t="s">
         <v>98</v>
       </c>
@@ -3317,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="52"/>
       <c r="B92" s="52"/>
       <c r="C92" s="53"/>
@@ -3329,7 +3319,7 @@
       <c r="F92" s="29"/>
       <c r="G92" s="25"/>
     </row>
-    <row r="93" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="51" t="s">
         <v>99</v>
       </c>
@@ -3349,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="51" t="s">
         <v>101</v>
       </c>
@@ -3369,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="51" t="s">
         <v>103</v>
       </c>
@@ -3389,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="51">
         <v>110045</v>
       </c>
@@ -3409,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="51">
         <v>110050</v>
       </c>
@@ -3429,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="51">
         <v>110055</v>
       </c>
@@ -3449,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="51" t="s">
         <v>48</v>
       </c>
@@ -3469,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="51" t="s">
         <v>105</v>
       </c>
@@ -3489,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="51" t="s">
         <v>49</v>
       </c>
@@ -3509,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="51" t="s">
         <v>106</v>
       </c>
@@ -3529,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="51" t="s">
         <v>107</v>
       </c>
@@ -3549,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="51" t="s">
         <v>108</v>
       </c>
@@ -3569,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="51" t="s">
         <v>50</v>
       </c>
@@ -3589,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="51" t="s">
         <v>51</v>
       </c>
@@ -3609,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="51" t="s">
         <v>109</v>
       </c>
@@ -3629,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="51"/>
       <c r="B108" s="52"/>
       <c r="C108" s="53"/>
@@ -3641,7 +3631,7 @@
       <c r="F108" s="28"/>
       <c r="G108" s="25"/>
     </row>
-    <row r="109" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="51" t="s">
         <v>110</v>
       </c>
@@ -3661,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="33"/>
       <c r="B110" s="13"/>
       <c r="C110" s="33"/>
